--- a/todo/Todo.xlsx
+++ b/todo/Todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismael\Documents\GitHub\avion-framework-java\todo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D42DA4E0-F6C3-432F-99DF-76EE5E5E9B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8057D06E-47AE-459D-B19E-CCB9C231CA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{70A18583-8EC7-41BB-90FB-F4D13DFDB406}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{4741BD40-88BF-42D2-8986-C602F5C10485}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,55 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>Catégorie</t>
+  </si>
+  <si>
+    <t>Tache</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Qui</t>
+  </si>
+  <si>
+    <t>Estimation</t>
+  </si>
+  <si>
+    <t>Reste à faire</t>
+  </si>
+  <si>
+    <t>Temps passee</t>
+  </si>
+  <si>
+    <t>Conception</t>
+  </si>
+  <si>
+    <t>Base de donnee</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,13 +411,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014B09C-821A-4907-AC1E-34041C056381}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CA6F5E-49FE-4385-851D-AFE3A324955F}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.796875" customWidth="1"/>
+    <col min="3" max="3" width="25.8984375" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/todo/Todo.xlsx
+++ b/todo/Todo.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismael\Documents\GitHub\avion-framework-java\todo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8057D06E-47AE-459D-B19E-CCB9C231CA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF34B04-B2D1-423C-AEBE-EF786AA703CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{4741BD40-88BF-42D2-8986-C602F5C10485}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="todo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Catégorie</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Base de donnee</t>
+  </si>
+  <si>
+    <t>ismael</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CA6F5E-49FE-4385-851D-AFE3A324955F}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -459,6 +462,59 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
